--- a/schema/smartt_test_schema.xlsx
+++ b/schema/smartt_test_schema.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t xml:space="preserve">Feature Category</t>
   </si>
@@ -162,21 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">Laboratory_results.Blood_gas_analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart, hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtAssessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vital_signs_and_device_data.Circulation</t>
   </si>
 </sst>
 </file>
@@ -294,7 +279,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="160.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
@@ -509,7 +494,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,27 +557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/schema/smartt_test_schema.xlsx
+++ b/schema/smartt_test_schema.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t xml:space="preserve">Feature Category</t>
   </si>
@@ -162,6 +162,21 @@
   </si>
   <si>
     <t xml:space="preserve">Laboratory_results.Blood_gas_analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arterial blood pressure (systolic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systolic, arterial, pressure, sap, abp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtAssessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vital_signs_and_device_data.Circulation</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A3:F3 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +509,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,6 +570,27 @@
       </c>
       <c r="F2" s="0" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/schema/smartt_test_schema.xlsx
+++ b/schema/smartt_test_schema.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t xml:space="preserve">Feature Category</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Possibly derived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Series</t>
   </si>
   <si>
     <t xml:space="preserve">Pacmed ontology </t>
@@ -183,8 +186,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -260,12 +264,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,7 +297,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A3:F3 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,26 +514,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="95.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="47.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="95.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -550,113 +558,58 @@
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>46</v>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
